--- a/Feature-Analysis/Resize Feature/s_27_left.xlsx
+++ b/Feature-Analysis/Resize Feature/s_27_left.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.48131944449</v>
+        <v>738157.48131944449</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.48179398151</v>
+        <v>738157.48179398151</v>
       </c>
       <c r="C3" s="0">
         <v>40.999998897314072</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.4822453704</v>
+        <v>738157.4822453704</v>
       </c>
       <c r="C4" s="0">
         <v>79.999998584389687</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.4825925926</v>
+        <v>738157.4825925926</v>
       </c>
       <c r="C5" s="0">
         <v>109.99999679625034</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.48295138893</v>
+        <v>738157.48295138893</v>
       </c>
       <c r="C6" s="0">
         <v>140.99999964237213</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.48327546299</v>
+        <v>738157.48327546299</v>
       </c>
       <c r="C7" s="0">
         <v>168.99999864399433</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.48364583333</v>
+        <v>738157.48364583333</v>
       </c>
       <c r="C8" s="0">
         <v>200.99999606609344</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.48396990739</v>
+        <v>738157.48396990739</v>
       </c>
       <c r="C9" s="0">
         <v>228.99999506771564</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.48432870372</v>
+        <v>738157.48432870372</v>
       </c>
       <c r="C10" s="0">
         <v>259.99999791383743</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.48468750005</v>
+        <v>738157.48468750005</v>
       </c>
       <c r="C11" s="0">
         <v>291.00000075995922</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.48501157411</v>
+        <v>738157.48501157411</v>
       </c>
       <c r="C12" s="0">
         <v>318.99999976158142</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.48535879632</v>
+        <v>738157.48535879632</v>
       </c>
       <c r="C13" s="0">
         <v>348.99999797344208</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.48570601852</v>
+        <v>738157.48570601852</v>
       </c>
       <c r="C14" s="0">
         <v>378.99999618530273</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.48605324072</v>
+        <v>738157.48605324072</v>
       </c>
       <c r="C15" s="0">
         <v>408.99999439716339</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.48641203705</v>
+        <v>738157.48641203705</v>
       </c>
       <c r="C16" s="0">
         <v>439.99999724328518</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.48677083338</v>
+        <v>738157.48677083338</v>
       </c>
       <c r="C17" s="0">
         <v>471.00000008940697</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.48711805558</v>
+        <v>738157.48711805558</v>
       </c>
       <c r="C18" s="0">
         <v>500.99999830126762</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.48744212964</v>
+        <v>738157.48744212964</v>
       </c>
       <c r="C19" s="0">
         <v>528.99999730288982</v>
@@ -14197,7 +14197,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.48780092597</v>
+        <v>738157.48780092597</v>
       </c>
       <c r="C20" s="0">
         <v>560.00000014901161</v>
@@ -14892,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.48814814817</v>
+        <v>738157.48814814817</v>
       </c>
       <c r="C21" s="0">
         <v>589.99999836087227</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.48848379625</v>
+        <v>738157.48848379625</v>
       </c>
       <c r="C22" s="0">
         <v>618.99999193847179</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.48878472217</v>
+        <v>738157.48878472217</v>
       </c>
       <c r="C23" s="0">
         <v>644.99999172985554</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.48930555559</v>
+        <v>738157.48930555559</v>
       </c>
       <c r="C24" s="0">
         <v>689.99999910593033</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.48964120366</v>
+        <v>738157.48964120366</v>
       </c>
       <c r="C25" s="0">
         <v>718.99999268352985</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.48999999999</v>
+        <v>738157.48999999999</v>
       </c>
       <c r="C26" s="0">
         <v>749.99999552965164</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.49035879632</v>
+        <v>738157.49035879632</v>
       </c>
       <c r="C27" s="0">
         <v>780.99999837577343</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.49069444439</v>
+        <v>738157.49069444439</v>
       </c>
       <c r="C28" s="0">
         <v>809.99999195337296</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.49106481485</v>
+        <v>738157.49106481485</v>
       </c>
       <c r="C29" s="0">
         <v>841.99999943375587</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.49106481485</v>
+        <v>738157.49106481485</v>
       </c>
       <c r="C30" s="0">
         <v>841.99999943375587</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.49177083338</v>
+        <v>738157.49177083338</v>
       </c>
       <c r="C31" s="0">
         <v>903.00000049173832</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.49177083338</v>
+        <v>738157.49177083338</v>
       </c>
       <c r="C32" s="0">
         <v>903.00000049173832</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.49210648146</v>
+        <v>738157.49210648146</v>
       </c>
       <c r="C33" s="0">
         <v>931.99999406933784</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.49252314819</v>
+        <v>738157.49252314819</v>
       </c>
       <c r="C34" s="0">
         <v>967.99999997019768</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.49280092597</v>
+        <v>738157.49280092597</v>
       </c>
       <c r="C35" s="0">
         <v>992.00000055134296</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.49349537038</v>
+        <v>738157.49349537038</v>
       </c>
       <c r="C36" s="0">
         <v>1051.9999969750643</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.49349537038</v>
+        <v>738157.49349537038</v>
       </c>
       <c r="C37" s="0">
         <v>1051.9999969750643</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.49384259258</v>
+        <v>738157.49384259258</v>
       </c>
       <c r="C38" s="0">
         <v>1081.9999951869249</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.49418981478</v>
+        <v>738157.49418981478</v>
       </c>
       <c r="C39" s="0">
         <v>1111.9999933987856</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.4948842593</v>
+        <v>738157.4948842593</v>
       </c>
       <c r="C40" s="0">
         <v>1171.9999998807907</v>
